--- a/biology/Biologie cellulaire et moléculaire/Cellule_transitionnelle/Cellule_transitionnelle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_transitionnelle/Cellule_transitionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cellule transitionnelle est une cellule qui peut changer de forme en fonction de la pression exercée sur elle.
 Les cellules transitionnelles forme un type d'épithélium, l'épithélium transitionnel ou urothélium, dont la fonction principale est ce changement de conformation. Il s'étire facilement. Il ressemble aux épithéliums stratifiés squameux et cuboïde. Les cellules basales sont cuboïdes ou prismatiques, les cellules superficielles sont aplaties ou bombées selon le degré d'étirement de l'organe.
@@ -513,7 +525,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Lésions urothéliales
 </t>
